--- a/data/trans_bre/Q23_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Clase-trans_bre.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 1,34</t>
+          <t>-17,51; 0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 6,09</t>
+          <t>-11,25; 6,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 47,17</t>
+          <t>-10,99; 9,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 4,48</t>
+          <t>-12,35; 3,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 6,51</t>
+          <t>-65,78; 4,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 31,8</t>
+          <t>-41,69; 33,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,75; 46,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 23,47</t>
+          <t>-45,29; 20,41</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-45,99</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-82,61%</t>
+          <t>-39,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 7,88</t>
+          <t>-10,97; 8,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 7,98</t>
+          <t>-10,24; 8,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,96; -15,81</t>
+          <t>-23,55; -3,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 6,45</t>
+          <t>-13,95; 6,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 34,03</t>
+          <t>-35,44; 41,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 35,38</t>
+          <t>-33,94; 36,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -7,58</t>
+          <t>-60,39; -10,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 28,36</t>
+          <t>-38,23; 31,66</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>-12,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>-33,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 0,36</t>
+          <t>-22,51; -0,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -7,48</t>
+          <t>-26,38; -8,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 53,24</t>
+          <t>-23,67; -0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 28,11</t>
+          <t>-17,25; 29,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,88; 2,96</t>
+          <t>-61,1; 3,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,74; -21,47</t>
+          <t>-64,87; -21,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 117,13</t>
+          <t>-57,51; -1,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 453,95</t>
+          <t>-47,03; 405,46</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>-12,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -3,64</t>
+          <t>-15,66; -3,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -5,07</t>
+          <t>-17,79; -5,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 30,31</t>
+          <t>-18,16; -6,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -3,54</t>
+          <t>-15,68; -2,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,4; -9,79</t>
+          <t>-40,01; -10,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,41; -12,79</t>
+          <t>-41,48; -14,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 75,68</t>
+          <t>-46,61; -18,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,35; -10,94</t>
+          <t>-40,09; -6,68</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,81</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>-15,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,8; -3,48</t>
+          <t>-22,85; -3,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; -1,21</t>
+          <t>-16,83; -1,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 43,09</t>
+          <t>-13,73; 1,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -8,17</t>
+          <t>-24,82; -8,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,71; -7,48</t>
+          <t>-46,42; -8,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,77; -3,66</t>
+          <t>-39,05; -3,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 96,57</t>
+          <t>-32,03; 3,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,77; -21,45</t>
+          <t>-55,0; -22,92</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-14,94</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>-38,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,57; -8,88</t>
+          <t>-32,69; -8,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 3,87</t>
+          <t>-23,47; 3,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 23,97</t>
+          <t>-27,75; -2,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 9,37</t>
+          <t>-42,7; 9,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,6; -21,76</t>
+          <t>-56,95; -21,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,2; 11,15</t>
+          <t>-42,34; 8,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,78; 72,09</t>
+          <t>-58,88; -8,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,6; 74,69</t>
+          <t>-76,16; 75,81</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-28,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -5,56</t>
+          <t>-12,36; -5,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -4,76</t>
+          <t>-11,68; -4,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 7,42</t>
+          <t>-13,89; -6,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 4,85</t>
+          <t>-11,74; 5,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,01; -15,82</t>
+          <t>-33,22; -15,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,61; -13,36</t>
+          <t>-30,92; -13,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 16,23</t>
+          <t>-36,25; -19,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 22,93</t>
+          <t>-33,76; 26,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Clase-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-33,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-33,45%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-17,85%</t>
         </is>
       </c>
     </row>
@@ -683,27 +657,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 3,46</t>
+          <t>-65,78; 4,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,78; 4,29</t>
+          <t>-41,69; 33,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 33,93</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
           <t>-40,75; 46,88</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-45,29; 20,41</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-6,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-39,49%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,98%</t>
         </is>
       </c>
     </row>
@@ -783,27 +737,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 6,9</t>
+          <t>-35,44; 41,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 41,84</t>
+          <t>-33,94; 36,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 36,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
           <t>-60,39; -10,91</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-38,23; 31,66</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>-35,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,77%</t>
+          <t>-47,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>-33,16%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,05%</t>
         </is>
       </c>
     </row>
@@ -883,27 +817,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 29,71</t>
+          <t>-61,1; 3,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,1; 3,22</t>
+          <t>-64,87; -21,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,87; -21,49</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
           <t>-57,51; -1,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-47,03; 405,46</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>-25,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,54%</t>
+          <t>-28,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-33,95%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-26,47%</t>
         </is>
       </c>
     </row>
@@ -983,27 +897,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -2,41</t>
+          <t>-40,01; -10,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,01; -10,21</t>
+          <t>-41,48; -14,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,48; -14,95</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
           <t>-46,61; -18,83</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-40,09; -6,68</t>
         </is>
       </c>
     </row>
@@ -1035,27 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-16,28</t>
+          <t>-28,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-28,81%</t>
+          <t>-22,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-22,86%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
           <t>-15,53%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-40,24%</t>
         </is>
       </c>
     </row>
@@ -1083,34 +977,24 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,82; -8,4</t>
+          <t>-46,42; -8,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,42; -8,53</t>
+          <t>-39,05; -3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,05; -3,48</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
           <t>-32,03; 3,42</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-55,0; -22,92</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1135,27 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-41,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,37%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
           <t>-38,03%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-38,36%</t>
         </is>
       </c>
     </row>
@@ -1183,27 +1057,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 9,0</t>
+          <t>-56,95; -21,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,95; -21,12</t>
+          <t>-42,34; 8,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,34; 8,71</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
           <t>-58,88; -8,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-76,16; 75,81</t>
         </is>
       </c>
     </row>
@@ -1235,27 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-24,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-24,9%</t>
+          <t>-22,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-22,56%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
           <t>-28,38%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-18,72%</t>
         </is>
       </c>
     </row>
@@ -1283,27 +1137,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 5,48</t>
+          <t>-33,22; -15,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,87</t>
+          <t>-30,92; -13,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,92; -13,42</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
           <t>-36,25; -19,59</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-33,76; 26,47</t>
         </is>
       </c>
     </row>
@@ -1316,13 +1160,13 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
